--- a/Code/Results/Cases/Case_2_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.443141840138367</v>
+        <v>1.422295579437503</v>
       </c>
       <c r="C2">
-        <v>0.4327597324251258</v>
+        <v>0.3967928226192043</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1134716407103831</v>
+        <v>0.2814513378807391</v>
       </c>
       <c r="F2">
-        <v>0.7935079514828871</v>
+        <v>1.588584802765887</v>
       </c>
       <c r="G2">
-        <v>0.2049078838778371</v>
+        <v>0.4192116588298305</v>
       </c>
       <c r="H2">
-        <v>0.2003887041374099</v>
+        <v>0.5862643707296371</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06620741730239388</v>
+        <v>0.03502352788252239</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5710798818888492</v>
+        <v>0.5591069227842951</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8036395432508954</v>
+        <v>1.960301203518554</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.996435892944305</v>
+        <v>1.280489998532573</v>
       </c>
       <c r="C3">
-        <v>0.4069331097030187</v>
+        <v>0.3888936859754182</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1107909348821572</v>
+        <v>0.2826141269567977</v>
       </c>
       <c r="F3">
-        <v>0.7592504832891223</v>
+        <v>1.595563293899247</v>
       </c>
       <c r="G3">
-        <v>0.200150468138844</v>
+        <v>0.4247075550293573</v>
       </c>
       <c r="H3">
-        <v>0.2050888447072765</v>
+        <v>0.593302144479118</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05994803267729054</v>
+        <v>0.03295554047478788</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5067993636028945</v>
+        <v>0.5421218507654828</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8029939948174416</v>
+        <v>1.986406789389221</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.722286591778243</v>
+        <v>1.193256204041575</v>
       </c>
       <c r="C4">
-        <v>0.3912450091429918</v>
+        <v>0.3841169021412867</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1093104285272481</v>
+        <v>0.28344269311944</v>
       </c>
       <c r="F4">
-        <v>0.7400740392688476</v>
+        <v>1.600867218179907</v>
       </c>
       <c r="G4">
-        <v>0.1981962922275429</v>
+        <v>0.4285082427658367</v>
       </c>
       <c r="H4">
-        <v>0.2085752388243733</v>
+        <v>0.597968859211818</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05611171149525518</v>
+        <v>0.0316850409194771</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.467574444533625</v>
+        <v>0.5318377106014651</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8058949362827263</v>
+        <v>2.004052987939659</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.610568938625136</v>
+        <v>1.157668829513455</v>
       </c>
       <c r="C5">
-        <v>0.3848921297246193</v>
+        <v>0.3821890224420628</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1087472702080987</v>
+        <v>0.2838091995990553</v>
       </c>
       <c r="F5">
-        <v>0.7327034561034296</v>
+        <v>1.603284807514619</v>
       </c>
       <c r="G5">
-        <v>0.19762947434252</v>
+        <v>0.4301639500946379</v>
       </c>
       <c r="H5">
-        <v>0.2101409243050085</v>
+        <v>0.5999574242195322</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05454975221188008</v>
+        <v>0.03116715670934056</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.451644714549019</v>
+        <v>0.5276835916519786</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8078647019169836</v>
+        <v>2.011649973464628</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.59201743210275</v>
+        <v>1.151757297730171</v>
       </c>
       <c r="C6">
-        <v>0.3838395947503699</v>
+        <v>0.3818700365999348</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1086561427349189</v>
+        <v>0.2838718019027517</v>
       </c>
       <c r="F6">
-        <v>0.7315057338728082</v>
+        <v>1.603701718158241</v>
       </c>
       <c r="G6">
-        <v>0.1975488314984872</v>
+        <v>0.4304453273211308</v>
       </c>
       <c r="H6">
-        <v>0.2104094884905265</v>
+        <v>0.6002928678345896</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05429046240910651</v>
+        <v>0.03108115490987018</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4490027184036904</v>
+        <v>0.5269960334080253</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8082381721647351</v>
+        <v>2.012935950179028</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.720779967799274</v>
+        <v>1.192776414427726</v>
       </c>
       <c r="C7">
-        <v>0.3911591725773036</v>
+        <v>0.3840908260226712</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1093026728331878</v>
+        <v>0.2834475190519612</v>
       </c>
       <c r="F7">
-        <v>0.7399728692247152</v>
+        <v>1.600898785389738</v>
       </c>
       <c r="G7">
-        <v>0.1981877361083306</v>
+        <v>0.4285301397567665</v>
       </c>
       <c r="H7">
-        <v>0.2085957750845608</v>
+        <v>0.5979953261287179</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05609064128957897</v>
+        <v>0.03167805708383398</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4673593972967467</v>
+        <v>0.5317815374281736</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8059183656937421</v>
+        <v>2.004153800475422</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.289070411445437</v>
+        <v>1.373436622944723</v>
       </c>
       <c r="C8">
-        <v>0.4238179602844809</v>
+        <v>0.3940541364432306</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1125121009206751</v>
+        <v>0.2818285040103063</v>
       </c>
       <c r="F8">
-        <v>0.7812960944510436</v>
+        <v>1.590779430509293</v>
       </c>
       <c r="G8">
-        <v>0.2030584551757073</v>
+        <v>0.4210180261315131</v>
       </c>
       <c r="H8">
-        <v>0.2018809533028687</v>
+        <v>0.5886192666580143</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06404749738304361</v>
+        <v>0.03431066561184792</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5488613506495454</v>
+        <v>0.5532206278183622</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8027069943500322</v>
+        <v>1.968966352618608</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.406140129454627</v>
+        <v>1.726312984291724</v>
       </c>
       <c r="C9">
-        <v>0.4893321244543358</v>
+        <v>0.4141636668171884</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1201875851385559</v>
+        <v>0.2795613738048885</v>
       </c>
       <c r="F9">
-        <v>0.8781763101572722</v>
+        <v>1.579025925325539</v>
       </c>
       <c r="G9">
-        <v>0.2209287165056892</v>
+        <v>0.4096806908093455</v>
       </c>
       <c r="H9">
-        <v>0.193764898595937</v>
+        <v>0.5729757456222231</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07972535739936149</v>
+        <v>0.0394656699514826</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7109397238157413</v>
+        <v>0.596398344271222</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.824545478909144</v>
+        <v>1.912825795930118</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.230978144202425</v>
+        <v>1.984621953072974</v>
       </c>
       <c r="C10">
-        <v>0.5385550627764815</v>
+        <v>0.4292746632407898</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.126770891325144</v>
+        <v>0.2784471164613294</v>
       </c>
       <c r="F10">
-        <v>0.9606435881032098</v>
+        <v>1.575331065791843</v>
       </c>
       <c r="G10">
-        <v>0.2400814855442164</v>
+        <v>0.4034372819470988</v>
       </c>
       <c r="H10">
-        <v>0.1913038414427319</v>
+        <v>0.5631566822845073</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09131917974426074</v>
+        <v>0.04324668330933434</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8318794226743762</v>
+        <v>0.6287996803612543</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8606462226794349</v>
+        <v>1.879461360462557</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.607725558377354</v>
+        <v>2.101908566657414</v>
       </c>
       <c r="C11">
-        <v>0.5612317042941868</v>
+        <v>0.436219770324243</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1299948762058349</v>
+        <v>0.2780595370385726</v>
       </c>
       <c r="F11">
-        <v>1.00099813644853</v>
+        <v>1.574724845899411</v>
       </c>
       <c r="G11">
-        <v>0.2503287826687526</v>
+        <v>0.4010536438018377</v>
       </c>
       <c r="H11">
-        <v>0.1910450210052943</v>
+        <v>0.5590537317899944</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09661713421406404</v>
+        <v>0.04496503229143656</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8874192957664206</v>
+        <v>0.6436845970411866</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8821145033446385</v>
+        <v>1.866003327897502</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.750662916962597</v>
+        <v>2.146288295742295</v>
       </c>
       <c r="C12">
-        <v>0.5698639087304969</v>
+        <v>0.4388596896160948</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1312508086262199</v>
+        <v>0.2779298900495988</v>
       </c>
       <c r="F12">
-        <v>1.016722226949014</v>
+        <v>1.574649925714695</v>
       </c>
       <c r="G12">
-        <v>0.2544501604588945</v>
+        <v>0.4002169638013697</v>
       </c>
       <c r="H12">
-        <v>0.19107982508703</v>
+        <v>0.5575524078653515</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09862739667872233</v>
+        <v>0.04561545150708213</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9085364341796662</v>
+        <v>0.6493417351478001</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8910316003995433</v>
+        <v>1.861155123278877</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.719865859046422</v>
+        <v>2.136731887915118</v>
       </c>
       <c r="C13">
-        <v>0.568002736724452</v>
+        <v>0.4382906969373153</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.130978725670694</v>
+        <v>0.2779570509402376</v>
       </c>
       <c r="F13">
-        <v>1.013315500914544</v>
+        <v>1.574659181524723</v>
       </c>
       <c r="G13">
-        <v>0.2535514933608667</v>
+        <v>0.4003942197382102</v>
       </c>
       <c r="H13">
-        <v>0.1910662715161635</v>
+        <v>0.5578734144892081</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09819426067907955</v>
+        <v>0.0454753853508123</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.903984514082623</v>
+        <v>0.6481224613368113</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8890750847997566</v>
+        <v>1.862188225947492</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.619479350477661</v>
+        <v>2.105560413296303</v>
       </c>
       <c r="C14">
-        <v>0.5619409534446618</v>
+        <v>0.4364367599616799</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1300974868323301</v>
+        <v>0.278048527971599</v>
       </c>
       <c r="F14">
-        <v>1.002282689202303</v>
+        <v>1.574715582248686</v>
       </c>
       <c r="G14">
-        <v>0.2506629006280434</v>
+        <v>0.4009834861172834</v>
       </c>
       <c r="H14">
-        <v>0.1910451684591621</v>
+        <v>0.5589291669539023</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09678243503928741</v>
+        <v>0.04501854858251164</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8891548436112942</v>
+        <v>0.6441496035551495</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8828319645290179</v>
+        <v>1.865599487228963</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.558026662868599</v>
+        <v>2.086462458482117</v>
       </c>
       <c r="C15">
-        <v>0.5582339302280843</v>
+        <v>0.4353024592791996</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1295623362896841</v>
+        <v>0.2781067889201658</v>
       </c>
       <c r="F15">
-        <v>0.9955834861373631</v>
+        <v>1.574770271731424</v>
       </c>
       <c r="G15">
-        <v>0.2489255592176107</v>
+        <v>0.4013530267113836</v>
       </c>
       <c r="H15">
-        <v>0.191049817943032</v>
+        <v>0.5595826683409797</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09591819640474597</v>
+        <v>0.04473868479671239</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8800826750103568</v>
+        <v>0.6417187780345728</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8791123458204453</v>
+        <v>1.867721311142873</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.206391846891449</v>
+        <v>1.976952357702089</v>
       </c>
       <c r="C16">
-        <v>0.5370791653834317</v>
+        <v>0.4288221915624604</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1265649865633343</v>
+        <v>0.2784748433936954</v>
       </c>
       <c r="F16">
-        <v>0.9580663487838734</v>
+        <v>1.575392317280361</v>
       </c>
       <c r="G16">
-        <v>0.2394443814065923</v>
+        <v>0.4036022707706977</v>
       </c>
       <c r="H16">
-        <v>0.1913388343852418</v>
+        <v>0.5634321454284148</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09097347727411176</v>
+        <v>0.04313434808436512</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8282611453316235</v>
+        <v>0.6278298105087003</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8593499508820912</v>
+        <v>1.880375544527496</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.991101470692172</v>
+        <v>1.90971339029511</v>
       </c>
       <c r="C17">
-        <v>0.5241771727929461</v>
+        <v>0.4248647677327426</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1247863793271051</v>
+        <v>0.2787311643774473</v>
       </c>
       <c r="F17">
-        <v>0.9358018304991589</v>
+        <v>1.576049234720415</v>
       </c>
       <c r="G17">
-        <v>0.2340350157649098</v>
+        <v>0.4050992524748622</v>
       </c>
       <c r="H17">
-        <v>0.1917428234868552</v>
+        <v>0.5658868944475728</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08794658407830269</v>
+        <v>0.04214968430657251</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7966114032611813</v>
+        <v>0.6193463567434776</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8485614360595548</v>
+        <v>1.888579499353227</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.86741226831623</v>
+        <v>1.871018815327716</v>
       </c>
       <c r="C18">
-        <v>0.5167828382835751</v>
+        <v>0.4225952638943511</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1237848104691466</v>
+        <v>0.2788898247446667</v>
       </c>
       <c r="F18">
-        <v>0.9232609689307623</v>
+        <v>1.576528214917829</v>
       </c>
       <c r="G18">
-        <v>0.2310668404909819</v>
+        <v>0.4060032284505795</v>
       </c>
       <c r="H18">
-        <v>0.1920556249582788</v>
+        <v>0.5673330391786351</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08620780225454183</v>
+        <v>0.04158317880371243</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7784559641894191</v>
+        <v>0.6144806045677171</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8428271505414671</v>
+        <v>1.893460009183926</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.825555777901457</v>
+        <v>1.857914056300274</v>
       </c>
       <c r="C19">
-        <v>0.5142836844826775</v>
+        <v>0.4218280078119676</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1234493163013468</v>
+        <v>0.2789454744608015</v>
       </c>
       <c r="F19">
-        <v>0.919059371809027</v>
+        <v>1.57670775643048</v>
       </c>
       <c r="G19">
-        <v>0.2300858586082626</v>
+        <v>0.4063166668543232</v>
       </c>
       <c r="H19">
-        <v>0.1921750842355507</v>
+        <v>0.5678285574661928</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08561944186461545</v>
+        <v>0.041391344869524</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7723169064152842</v>
+        <v>0.6128355096089706</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8409646952236471</v>
+        <v>1.895140233441282</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.014004632169645</v>
+        <v>1.91687323375811</v>
       </c>
       <c r="C20">
-        <v>0.5255478354974059</v>
+        <v>0.4252853505322207</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1249734813404402</v>
+        <v>0.2787027164223943</v>
       </c>
       <c r="F20">
-        <v>0.9381442483498148</v>
+        <v>1.575968836406759</v>
       </c>
       <c r="G20">
-        <v>0.234595894299801</v>
+        <v>0.404935448661611</v>
       </c>
       <c r="H20">
-        <v>0.1916914297069141</v>
+        <v>0.5656220382683586</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08826856933491456</v>
+        <v>0.04225451959931803</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7999754661181271</v>
+        <v>0.6202480189917594</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8496607122044821</v>
+        <v>1.887689421743488</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.648957502669703</v>
+        <v>2.114717178957505</v>
       </c>
       <c r="C21">
-        <v>0.563720189212944</v>
+        <v>0.4369810379684509</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1303553583990578</v>
+        <v>0.2780211945682041</v>
       </c>
       <c r="F21">
-        <v>1.005510993064021</v>
+        <v>1.574694818123035</v>
       </c>
       <c r="G21">
-        <v>0.25150464226747</v>
+        <v>0.4008086119565917</v>
       </c>
       <c r="H21">
-        <v>0.1910476871137519</v>
+        <v>0.5586176449468852</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09719700764743777</v>
+        <v>0.04515274062909924</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8935082756638053</v>
+        <v>0.6453159735382599</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8846438314264446</v>
+        <v>1.864590778610847</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.065544451660287</v>
+        <v>2.243819292480339</v>
       </c>
       <c r="C22">
-        <v>0.5889327658225625</v>
+        <v>0.4446827716124346</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1340782830741922</v>
+        <v>0.277675558491552</v>
       </c>
       <c r="F22">
-        <v>1.052137147725816</v>
+        <v>1.574763598916974</v>
       </c>
       <c r="G22">
-        <v>0.2639703956651189</v>
+        <v>0.3984960447494075</v>
       </c>
       <c r="H22">
-        <v>0.1914057792308768</v>
+        <v>0.5543451754678657</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.103056137236436</v>
+        <v>0.04704522998824956</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9551403488671326</v>
+        <v>0.6618189052249761</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9121296275180271</v>
+        <v>1.850940724401241</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.843038650115147</v>
+        <v>2.174934253135689</v>
       </c>
       <c r="C23">
-        <v>0.5754506784383864</v>
+        <v>0.4405669952951996</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1320717416579633</v>
+        <v>0.2778509126946354</v>
       </c>
       <c r="F23">
-        <v>1.027002180680626</v>
+        <v>1.574644370698266</v>
       </c>
       <c r="G23">
-        <v>0.2571806405780919</v>
+        <v>0.3996950179065237</v>
       </c>
       <c r="H23">
-        <v>0.1911402367828998</v>
+        <v>0.5565975169389077</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09992661014010906</v>
+        <v>0.04603533984426633</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9221965987485419</v>
+        <v>0.6530001584716558</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8970153581035021</v>
+        <v>1.858093426735067</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.003649854790012</v>
+        <v>1.913636386687131</v>
       </c>
       <c r="C24">
-        <v>0.5249280869528263</v>
+        <v>0.4250951873622739</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1248888273428825</v>
+        <v>0.2787155425481203</v>
       </c>
       <c r="F24">
-        <v>0.9370844361259572</v>
+        <v>1.576004868921331</v>
       </c>
       <c r="G24">
-        <v>0.2343418811382634</v>
+        <v>0.4050093693834</v>
       </c>
       <c r="H24">
-        <v>0.1917144146382412</v>
+        <v>0.5657416711114109</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08812299542484681</v>
+        <v>0.042207124834583</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7984544481558657</v>
+        <v>0.6198403416479437</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8491622758285331</v>
+        <v>1.888091315203198</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.103411638589478</v>
+        <v>1.631010356328431</v>
       </c>
       <c r="C25">
-        <v>0.4714323746306377</v>
+        <v>0.4086635647863375</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1179530937951014</v>
+        <v>0.2800777169430511</v>
       </c>
       <c r="F25">
-        <v>0.8501091517804298</v>
+        <v>1.581338553740906</v>
       </c>
       <c r="G25">
-        <v>0.2151091073126423</v>
+        <v>0.4123826241993314</v>
       </c>
       <c r="H25">
-        <v>0.1953777396160348</v>
+        <v>0.5769138698791494</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07547315659070364</v>
+        <v>0.03807209602600636</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6668037539877787</v>
+        <v>0.5845974644336849</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8153368459750112</v>
+        <v>1.926632087537783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.422295579437503</v>
+        <v>3.443141840138537</v>
       </c>
       <c r="C2">
-        <v>0.3967928226192043</v>
+        <v>0.4327597324251542</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2814513378807391</v>
+        <v>0.1134716407103333</v>
       </c>
       <c r="F2">
-        <v>1.588584802765887</v>
+        <v>0.7935079514828729</v>
       </c>
       <c r="G2">
-        <v>0.4192116588298305</v>
+        <v>0.2049078838778016</v>
       </c>
       <c r="H2">
-        <v>0.5862643707296371</v>
+        <v>0.2003887041375236</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03502352788252239</v>
+        <v>0.06620741730232282</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5591069227842951</v>
+        <v>0.5710798818889344</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.960301203518554</v>
+        <v>0.8036395432509522</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.280489998532573</v>
+        <v>2.996435892944248</v>
       </c>
       <c r="C3">
-        <v>0.3888936859754182</v>
+        <v>0.4069331097027771</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2826141269567977</v>
+        <v>0.1107909348821572</v>
       </c>
       <c r="F3">
-        <v>1.595563293899247</v>
+        <v>0.7592504832891294</v>
       </c>
       <c r="G3">
-        <v>0.4247075550293573</v>
+        <v>0.2001504681388937</v>
       </c>
       <c r="H3">
-        <v>0.593302144479118</v>
+        <v>0.2050888447072765</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03295554047478788</v>
+        <v>0.05994803267730475</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5421218507654828</v>
+        <v>0.5067993636029939</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.986406789389221</v>
+        <v>0.8029939948174416</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.193256204041575</v>
+        <v>2.722286591778413</v>
       </c>
       <c r="C4">
-        <v>0.3841169021412867</v>
+        <v>0.3912450091430202</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.28344269311944</v>
+        <v>0.1093104285272339</v>
       </c>
       <c r="F4">
-        <v>1.600867218179907</v>
+        <v>0.7400740392688334</v>
       </c>
       <c r="G4">
-        <v>0.4285082427658367</v>
+        <v>0.1981962922275855</v>
       </c>
       <c r="H4">
-        <v>0.597968859211818</v>
+        <v>0.2085752388245012</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0316850409194771</v>
+        <v>0.05611171149532268</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5318377106014651</v>
+        <v>0.467574444533696</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.004052987939659</v>
+        <v>0.8058949362826695</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.157668829513455</v>
+        <v>2.610568938625079</v>
       </c>
       <c r="C5">
-        <v>0.3821890224420628</v>
+        <v>0.3848921297247045</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2838091995990553</v>
+        <v>0.1087472702081058</v>
       </c>
       <c r="F5">
-        <v>1.603284807514619</v>
+        <v>0.7327034561034296</v>
       </c>
       <c r="G5">
-        <v>0.4301639500946379</v>
+        <v>0.1976294743425697</v>
       </c>
       <c r="H5">
-        <v>0.5999574242195322</v>
+        <v>0.2101409243050156</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03116715670934056</v>
+        <v>0.05454975221177349</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5276835916519786</v>
+        <v>0.451644714549019</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.011649973464628</v>
+        <v>0.8078647019169694</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.151757297730171</v>
+        <v>2.59201743210258</v>
       </c>
       <c r="C6">
-        <v>0.3818700365999348</v>
+        <v>0.3838395947501141</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2838718019027517</v>
+        <v>0.1086561427349473</v>
       </c>
       <c r="F6">
-        <v>1.603701718158241</v>
+        <v>0.7315057338728082</v>
       </c>
       <c r="G6">
-        <v>0.4304453273211308</v>
+        <v>0.1975488314984872</v>
       </c>
       <c r="H6">
-        <v>0.6002928678345896</v>
+        <v>0.2104094884905265</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03108115490987018</v>
+        <v>0.05429046240911006</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5269960334080253</v>
+        <v>0.4490027184036336</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.012935950179028</v>
+        <v>0.808238172164792</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.192776414427726</v>
+        <v>2.720779967799274</v>
       </c>
       <c r="C7">
-        <v>0.3840908260226712</v>
+        <v>0.3911591725774173</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2834475190519612</v>
+        <v>0.109302672833163</v>
       </c>
       <c r="F7">
-        <v>1.600898785389738</v>
+        <v>0.7399728692246939</v>
       </c>
       <c r="G7">
-        <v>0.4285301397567665</v>
+        <v>0.1981877361083235</v>
       </c>
       <c r="H7">
-        <v>0.5979953261287179</v>
+        <v>0.2085957750845608</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03167805708383398</v>
+        <v>0.05609064128964647</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5317815374281736</v>
+        <v>0.4673593972967609</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.004153800475422</v>
+        <v>0.8059183656937421</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.373436622944723</v>
+        <v>3.289070411445437</v>
       </c>
       <c r="C8">
-        <v>0.3940541364432306</v>
+        <v>0.4238179602847936</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2818285040103063</v>
+        <v>0.1125121009206254</v>
       </c>
       <c r="F8">
-        <v>1.590779430509293</v>
+        <v>0.7812960944510507</v>
       </c>
       <c r="G8">
-        <v>0.4210180261315131</v>
+        <v>0.2030584551757784</v>
       </c>
       <c r="H8">
-        <v>0.5886192666580143</v>
+        <v>0.2018809533028687</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03431066561184792</v>
+        <v>0.06404749738307913</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5532206278183622</v>
+        <v>0.5488613506495028</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.968966352618608</v>
+        <v>0.802706994350018</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.726312984291724</v>
+        <v>4.406140129454627</v>
       </c>
       <c r="C9">
-        <v>0.4141636668171884</v>
+        <v>0.4893321244544495</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2795613738048885</v>
+        <v>0.1201875851385878</v>
       </c>
       <c r="F9">
-        <v>1.579025925325539</v>
+        <v>0.8781763101573006</v>
       </c>
       <c r="G9">
-        <v>0.4096806908093455</v>
+        <v>0.2209287165057461</v>
       </c>
       <c r="H9">
-        <v>0.5729757456222231</v>
+        <v>0.1937648985959441</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0394656699514826</v>
+        <v>0.07972535739932596</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.596398344271222</v>
+        <v>0.7109397238157413</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.912825795930118</v>
+        <v>0.8245454789091724</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.984621953072974</v>
+        <v>5.230978144202368</v>
       </c>
       <c r="C10">
-        <v>0.4292746632407898</v>
+        <v>0.5385550627762541</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2784471164613294</v>
+        <v>0.126770891325144</v>
       </c>
       <c r="F10">
-        <v>1.575331065791843</v>
+        <v>0.9606435881032098</v>
       </c>
       <c r="G10">
-        <v>0.4034372819470988</v>
+        <v>0.2400814855442235</v>
       </c>
       <c r="H10">
-        <v>0.5631566822845073</v>
+        <v>0.1913038414426182</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04324668330933434</v>
+        <v>0.09131917974438863</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6287996803612543</v>
+        <v>0.8318794226744899</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.879461360462557</v>
+        <v>0.8606462226794349</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.101908566657414</v>
+        <v>5.607725558377297</v>
       </c>
       <c r="C11">
-        <v>0.436219770324243</v>
+        <v>0.5612317042941299</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2780595370385726</v>
+        <v>0.1299948762058385</v>
       </c>
       <c r="F11">
-        <v>1.574724845899411</v>
+        <v>1.000998136448558</v>
       </c>
       <c r="G11">
-        <v>0.4010536438018377</v>
+        <v>0.2503287826687597</v>
       </c>
       <c r="H11">
-        <v>0.5590537317899944</v>
+        <v>0.1910450210052943</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04496503229143656</v>
+        <v>0.09661713421417772</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6436845970411866</v>
+        <v>0.8874192957664206</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.866003327897502</v>
+        <v>0.8821145033446385</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.146288295742295</v>
+        <v>5.75066291696271</v>
       </c>
       <c r="C12">
-        <v>0.4388596896160948</v>
+        <v>0.5698639087300705</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2779298900495988</v>
+        <v>0.1312508086262341</v>
       </c>
       <c r="F12">
-        <v>1.574649925714695</v>
+        <v>1.016722226949028</v>
       </c>
       <c r="G12">
-        <v>0.4002169638013697</v>
+        <v>0.2544501604589513</v>
       </c>
       <c r="H12">
-        <v>0.5575524078653515</v>
+        <v>0.19107982508703</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04561545150708213</v>
+        <v>0.09862739667877207</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6493417351478001</v>
+        <v>0.9085364341796662</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.861155123278877</v>
+        <v>0.8910316003996002</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.136731887915118</v>
+        <v>5.719865859046479</v>
       </c>
       <c r="C13">
-        <v>0.4382906969373153</v>
+        <v>0.5680027367242815</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2779570509402376</v>
+        <v>0.1309787256706834</v>
       </c>
       <c r="F13">
-        <v>1.574659181524723</v>
+        <v>1.013315500914544</v>
       </c>
       <c r="G13">
-        <v>0.4003942197382102</v>
+        <v>0.2535514933608098</v>
       </c>
       <c r="H13">
-        <v>0.5578734144892081</v>
+        <v>0.1910662715161635</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0454753853508123</v>
+        <v>0.09819426067904402</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6481224613368113</v>
+        <v>0.9039845140825093</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.862188225947492</v>
+        <v>0.8890750847996856</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.105560413296303</v>
+        <v>5.619479350477604</v>
       </c>
       <c r="C14">
-        <v>0.4364367599616799</v>
+        <v>0.5619409534448607</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.278048527971599</v>
+        <v>0.1300974868323266</v>
       </c>
       <c r="F14">
-        <v>1.574715582248686</v>
+        <v>1.002282689202303</v>
       </c>
       <c r="G14">
-        <v>0.4009834861172834</v>
+        <v>0.2506629006281003</v>
       </c>
       <c r="H14">
-        <v>0.5589291669539023</v>
+        <v>0.191045168459155</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04501854858251164</v>
+        <v>0.09678243503931583</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6441496035551495</v>
+        <v>0.8891548436112942</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.865599487228963</v>
+        <v>0.8828319645289895</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.086462458482117</v>
+        <v>5.558026662868826</v>
       </c>
       <c r="C15">
-        <v>0.4353024592791996</v>
+        <v>0.5582339302279706</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2781067889201658</v>
+        <v>0.1295623362896841</v>
       </c>
       <c r="F15">
-        <v>1.574770271731424</v>
+        <v>0.9955834861373631</v>
       </c>
       <c r="G15">
-        <v>0.4013530267113836</v>
+        <v>0.2489255592176889</v>
       </c>
       <c r="H15">
-        <v>0.5595826683409797</v>
+        <v>0.1910498179431457</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04473868479671239</v>
+        <v>0.0959181964047886</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6417187780345728</v>
+        <v>0.8800826750103568</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.867721311142873</v>
+        <v>0.8791123458204453</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.976952357702089</v>
+        <v>5.20639184689162</v>
       </c>
       <c r="C16">
-        <v>0.4288221915624604</v>
+        <v>0.5370791653831759</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2784748433936954</v>
+        <v>0.1265649865633343</v>
       </c>
       <c r="F16">
-        <v>1.575392317280361</v>
+        <v>0.9580663487838592</v>
       </c>
       <c r="G16">
-        <v>0.4036022707706977</v>
+        <v>0.2394443814065639</v>
       </c>
       <c r="H16">
-        <v>0.5634321454284148</v>
+        <v>0.1913388343852489</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04313434808436512</v>
+        <v>0.09097347727411176</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6278298105087003</v>
+        <v>0.828261145331652</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.880375544527496</v>
+        <v>0.8593499508820912</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.90971339029511</v>
+        <v>4.991101470691831</v>
       </c>
       <c r="C17">
-        <v>0.4248647677327426</v>
+        <v>0.5241771727929745</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2787311643774473</v>
+        <v>0.1247863793271016</v>
       </c>
       <c r="F17">
-        <v>1.576049234720415</v>
+        <v>0.9358018304991305</v>
       </c>
       <c r="G17">
-        <v>0.4050992524748622</v>
+        <v>0.2340350157649738</v>
       </c>
       <c r="H17">
-        <v>0.5658868944475728</v>
+        <v>0.1917428234868552</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04214968430657251</v>
+        <v>0.08794658407830269</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6193463567434776</v>
+        <v>0.7966114032612097</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.888579499353227</v>
+        <v>0.8485614360595122</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.871018815327716</v>
+        <v>4.867412268316116</v>
       </c>
       <c r="C18">
-        <v>0.4225952638943511</v>
+        <v>0.5167828382836319</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2788898247446667</v>
+        <v>0.1237848104691466</v>
       </c>
       <c r="F18">
-        <v>1.576528214917829</v>
+        <v>0.923260968930748</v>
       </c>
       <c r="G18">
-        <v>0.4060032284505795</v>
+        <v>0.2310668404909819</v>
       </c>
       <c r="H18">
-        <v>0.5673330391786351</v>
+        <v>0.1920556249582788</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04158317880371243</v>
+        <v>0.08620780225454183</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6144806045677171</v>
+        <v>0.7784559641894191</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.893460009183926</v>
+        <v>0.8428271505414671</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.857914056300274</v>
+        <v>4.825555777901343</v>
       </c>
       <c r="C19">
-        <v>0.4218280078119676</v>
+        <v>0.5142836844827059</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2789454744608015</v>
+        <v>0.1234493163013468</v>
       </c>
       <c r="F19">
-        <v>1.57670775643048</v>
+        <v>0.919059371809027</v>
       </c>
       <c r="G19">
-        <v>0.4063166668543232</v>
+        <v>0.2300858586082057</v>
       </c>
       <c r="H19">
-        <v>0.5678285574661928</v>
+        <v>0.1921750842354442</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.041391344869524</v>
+        <v>0.08561944186457282</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6128355096089706</v>
+        <v>0.7723169064152842</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.895140233441282</v>
+        <v>0.8409646952236614</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.91687323375811</v>
+        <v>5.014004632169588</v>
       </c>
       <c r="C20">
-        <v>0.4252853505322207</v>
+        <v>0.5255478354971785</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2787027164223943</v>
+        <v>0.1249734813404686</v>
       </c>
       <c r="F20">
-        <v>1.575968836406759</v>
+        <v>0.9381442483498148</v>
       </c>
       <c r="G20">
-        <v>0.404935448661611</v>
+        <v>0.2345958942997299</v>
       </c>
       <c r="H20">
-        <v>0.5656220382683586</v>
+        <v>0.1916914297068004</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04225451959931803</v>
+        <v>0.08826856933490745</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6202480189917594</v>
+        <v>0.7999754661180987</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.887689421743488</v>
+        <v>0.8496607122044963</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.114717178957505</v>
+        <v>5.648957502669703</v>
       </c>
       <c r="C21">
-        <v>0.4369810379684509</v>
+        <v>0.5637201892126882</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2780211945682041</v>
+        <v>0.1303553583990613</v>
       </c>
       <c r="F21">
-        <v>1.574694818123035</v>
+        <v>1.00551099306405</v>
       </c>
       <c r="G21">
-        <v>0.4008086119565917</v>
+        <v>0.2515046422674629</v>
       </c>
       <c r="H21">
-        <v>0.5586176449468852</v>
+        <v>0.1910476871137519</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04515274062909924</v>
+        <v>0.09719700764738803</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6453159735382599</v>
+        <v>0.8935082756638337</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.864590778610847</v>
+        <v>0.8846438314264446</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.243819292480339</v>
+        <v>6.065544451659775</v>
       </c>
       <c r="C22">
-        <v>0.4446827716124346</v>
+        <v>0.5889327658222783</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.277675558491552</v>
+        <v>0.1340782830741816</v>
       </c>
       <c r="F22">
-        <v>1.574763598916974</v>
+        <v>1.052137147725816</v>
       </c>
       <c r="G22">
-        <v>0.3984960447494075</v>
+        <v>0.2639703956651331</v>
       </c>
       <c r="H22">
-        <v>0.5543451754678657</v>
+        <v>0.1914057792309904</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04704522998824956</v>
+        <v>0.1030561372364076</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6618189052249761</v>
+        <v>0.9551403488671042</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.850940724401241</v>
+        <v>0.9121296275180839</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.174934253135689</v>
+        <v>5.843038650115489</v>
       </c>
       <c r="C23">
-        <v>0.4405669952951996</v>
+        <v>0.5754506784385853</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2778509126946354</v>
+        <v>0.1320717416579811</v>
       </c>
       <c r="F23">
-        <v>1.574644370698266</v>
+        <v>1.02700218068064</v>
       </c>
       <c r="G23">
-        <v>0.3996950179065237</v>
+        <v>0.2571806405780706</v>
       </c>
       <c r="H23">
-        <v>0.5565975169389077</v>
+        <v>0.1911402367828998</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04603533984426633</v>
+        <v>0.09992661014010906</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6530001584716558</v>
+        <v>0.9221965987485419</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.858093426735067</v>
+        <v>0.8970153581036158</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.913636386687131</v>
+        <v>5.003649854789955</v>
       </c>
       <c r="C24">
-        <v>0.4250951873622739</v>
+        <v>0.5249280869530537</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2787155425481203</v>
+        <v>0.1248888273428648</v>
       </c>
       <c r="F24">
-        <v>1.576004868921331</v>
+        <v>0.9370844361259429</v>
       </c>
       <c r="G24">
-        <v>0.4050093693834</v>
+        <v>0.2343418811383202</v>
       </c>
       <c r="H24">
-        <v>0.5657416711114109</v>
+        <v>0.1917144146381204</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.042207124834583</v>
+        <v>0.08812299542478286</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6198403416479437</v>
+        <v>0.7984544481559226</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.888091315203198</v>
+        <v>0.8491622758285899</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.631010356328431</v>
+        <v>4.103411638589364</v>
       </c>
       <c r="C25">
-        <v>0.4086635647863375</v>
+        <v>0.4714323746304672</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2800777169430511</v>
+        <v>0.1179530937950943</v>
       </c>
       <c r="F25">
-        <v>1.581338553740906</v>
+        <v>0.850109151780444</v>
       </c>
       <c r="G25">
-        <v>0.4123826241993314</v>
+        <v>0.2151091073125855</v>
       </c>
       <c r="H25">
-        <v>0.5769138698791494</v>
+        <v>0.1953777396161556</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03807209602600636</v>
+        <v>0.07547315659064679</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5845974644336849</v>
+        <v>0.6668037539879492</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.926632087537783</v>
+        <v>0.8153368459751107</v>
       </c>
     </row>
   </sheetData>
